--- a/spliced/walkingToRunning/2023-04-03_16-57-58/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-57-58/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-8.995295524597168</v>
+        <v>-7.757678985595703</v>
       </c>
       <c r="B2" t="n">
-        <v>-13.89516067504883</v>
+        <v>-12.53094673156738</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.108983278274536</v>
+        <v>0.3439034819602966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.757678985595703</v>
+        <v>-5.902198791503906</v>
       </c>
       <c r="B3" t="n">
-        <v>-12.53094673156738</v>
+        <v>-8.129295349121094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3439034819602966</v>
+        <v>-3.702722311019897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.902198791503906</v>
+        <v>3.664461135864258</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.129295349121094</v>
+        <v>-17.59209632873535</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.702722311019897</v>
+        <v>3.448472261428833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.664461135864258</v>
+        <v>12.62621116638184</v>
       </c>
       <c r="B5" t="n">
-        <v>-17.59209632873535</v>
+        <v>-13.94561958312988</v>
       </c>
       <c r="C5" t="n">
-        <v>3.448472261428833</v>
+        <v>4.861473083496094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.62621116638184</v>
+        <v>-1.86917495727539</v>
       </c>
       <c r="B6" t="n">
-        <v>-13.94561958312988</v>
+        <v>-13.44295883178711</v>
       </c>
       <c r="C6" t="n">
-        <v>4.861473083496094</v>
+        <v>-5.517942905426025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.86917495727539</v>
+        <v>-12.46925640106201</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.44295883178711</v>
+        <v>-12.17165946960449</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.517942905426025</v>
+        <v>5.045797348022461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-12.46925640106201</v>
+        <v>-6.01265811920166</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.17165946960449</v>
+        <v>-7.838207244873047</v>
       </c>
       <c r="C8" t="n">
-        <v>5.045797348022461</v>
+        <v>-2.695719242095948</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.01265811920166</v>
+        <v>26.73387336730957</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.838207244873047</v>
+        <v>-35.77811050415039</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.695719242095948</v>
+        <v>-2.94611930847168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.73387336730957</v>
+        <v>-9.356051445007324</v>
       </c>
       <c r="B10" t="n">
-        <v>-35.77811050415039</v>
+        <v>-7.922670841217041</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.94611930847168</v>
+        <v>5.028885364532471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-9.356051445007324</v>
+        <v>36.33248519897461</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.922670841217041</v>
+        <v>-82.45571899414062</v>
       </c>
       <c r="C11" t="n">
-        <v>5.028885364532471</v>
+        <v>-2.755016803741455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>36.33248519897461</v>
+        <v>12.14756202697754</v>
       </c>
       <c r="B12" t="n">
-        <v>-82.45571899414062</v>
+        <v>1.323548316955566</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.755016803741455</v>
+        <v>-4.848138332366943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.14756202697754</v>
+        <v>-27.11720466613769</v>
       </c>
       <c r="B13" t="n">
-        <v>1.323548316955566</v>
+        <v>-6.166501045227051</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.848138332366943</v>
+        <v>-2.111397266387939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-27.11720466613769</v>
+        <v>-23.08919525146484</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.166501045227051</v>
+        <v>-69.49562072753906</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.111397266387939</v>
+        <v>16.15834617614746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-23.08919525146484</v>
+        <v>-10.68708801269531</v>
       </c>
       <c r="B15" t="n">
-        <v>-69.49562072753906</v>
+        <v>-11.96834945678711</v>
       </c>
       <c r="C15" t="n">
-        <v>16.15834617614746</v>
+        <v>-0.4801369309425354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-10.68708801269531</v>
+        <v>20.62446975708008</v>
       </c>
       <c r="B16" t="n">
-        <v>-11.96834945678711</v>
+        <v>-62.33862686157227</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4801369309425354</v>
+        <v>16.18105316162109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20.62446975708008</v>
+        <v>-75.94793701171875</v>
       </c>
       <c r="B17" t="n">
-        <v>-62.33862686157227</v>
+        <v>-8.823372840881348</v>
       </c>
       <c r="C17" t="n">
-        <v>16.18105316162109</v>
+        <v>-14.5358943939209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-75.94793701171875</v>
+        <v>-7.253152847290039</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.823372840881348</v>
+        <v>-10.62908172607422</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.5358943939209</v>
+        <v>-0.7572973966598511</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-7.253152847290039</v>
+        <v>-12.12154960632324</v>
       </c>
       <c r="B19" t="n">
-        <v>-10.62908172607422</v>
+        <v>-18.81453704833984</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7572973966598511</v>
+        <v>0.9114209413528442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-12.12154960632324</v>
+        <v>2.474559783935547</v>
       </c>
       <c r="B20" t="n">
-        <v>-18.81453704833984</v>
+        <v>-9.108858108520508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9114209413528442</v>
+        <v>18.17554664611816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.474559783935547</v>
+        <v>-10.10338973999023</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.108858108520508</v>
+        <v>-6.828082084655762</v>
       </c>
       <c r="C21" t="n">
-        <v>18.17554664611816</v>
+        <v>5.437564849853516</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9.688706398010254</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-28.64854431152344</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4038746356964111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-21.26608657836914</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.973570823669434</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-19.81748580932617</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-51.4796142578125</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-10.81356239318848</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.4013614654541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>69.01158905029297</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-76.07331848144531</v>
+      </c>
+      <c r="C25" t="n">
+        <v>28.56989669799805</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-14.15320301055908</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.329947471618652</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.596967697143555</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66.06742858886719</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-30.20949363708496</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25.3086986541748</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-70.19232940673828</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-22.23063087463379</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-31.12885093688965</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37.95425033569336</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.236392974853516</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.80910873413086</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-24.9067497253418</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-28.87722587585449</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-10.39637756347656</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-7.391507625579834</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-34.15201568603516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-12.95433330535889</v>
       </c>
     </row>
   </sheetData>
